--- a/Kocsis Balázs Tamás/teszteles/TeszteljükLe.xlsx
+++ b/Kocsis Balázs Tamás/teszteles/TeszteljükLe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KocsisBalazsTamas\Desktop\12.d\KA_12D.github.io\Kocsis Balázs Tamás\teszteles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8F5FCA-8646-4FBB-AD8D-1D2139DDAB9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A95D0D-239D-4236-BF83-8B5C5C3AFD67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tesztesetek" sheetId="1" r:id="rId1"/>
@@ -1086,7 +1086,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1165,6 +1165,12 @@
         <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -1240,7 +1246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1334,12 +1340,14 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -2363,7 +2371,7 @@
       <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -2389,7 +2397,7 @@
       <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -2415,7 +2423,7 @@
       <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -2441,7 +2449,7 @@
       <c r="F5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -2467,7 +2475,7 @@
       <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -2493,7 +2501,7 @@
       <c r="F7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -2519,7 +2527,7 @@
       <c r="F8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="12">
@@ -2545,7 +2553,7 @@
       <c r="F9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="12">
@@ -2571,7 +2579,7 @@
       <c r="F10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="12">
@@ -2597,7 +2605,7 @@
       <c r="F11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="12" t="s">
@@ -2623,7 +2631,7 @@
       <c r="F12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="56" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="14" t="s">
@@ -31844,7 +31852,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -31855,7 +31863,7 @@
     <col min="8" max="8" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -31952,7 +31960,7 @@
       <c r="F4" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="57" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="18" t="s">
@@ -31978,7 +31986,7 @@
       <c r="F5" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="18" t="s">
@@ -32004,7 +32012,7 @@
       <c r="F6" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="57" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="18" t="s">
@@ -32030,7 +32038,7 @@
       <c r="F7" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="57" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="18" t="s">
@@ -32056,7 +32064,7 @@
       <c r="F8" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="57" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="24" t="s">
@@ -32084,7 +32092,9 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -32094,7 +32104,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="58" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="25" t="s">
@@ -32105,7 +32115,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
+      <c r="A2" s="59"/>
       <c r="B2" s="25" t="s">
         <v>72</v>
       </c>
@@ -32114,7 +32124,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="25" t="s">
         <v>74</v>
       </c>
@@ -32123,7 +32133,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="25" t="s">
         <v>76</v>
       </c>
@@ -32132,7 +32142,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="58" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="25" t="s">
@@ -32143,7 +32153,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="25" t="s">
         <v>81</v>
       </c>
@@ -32152,7 +32162,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="25" t="s">
         <v>83</v>
       </c>
@@ -32161,7 +32171,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="58" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="25" t="s">
@@ -32172,7 +32182,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="25" t="s">
         <v>88</v>
       </c>
@@ -32181,7 +32191,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="58" t="s">
         <v>90</v>
       </c>
       <c r="B10" s="25" t="s">
@@ -32192,35 +32202,35 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="30"/>
       <c r="C11" s="26" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="30"/>
       <c r="C12" s="26" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="30"/>
       <c r="C13" s="26" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="30"/>
       <c r="C14" s="26" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="25" t="s">
         <v>7</v>
       </c>
@@ -32229,7 +32239,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="25" t="s">
         <v>98</v>
       </c>
@@ -32238,7 +32248,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="25" t="s">
         <v>2</v>
       </c>
@@ -33175,7 +33185,9 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -33212,13 +33224,13 @@
       <c r="B2" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="62" t="s">
         <v>171</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="61" t="s">
         <v>203</v>
       </c>
       <c r="F2" s="18" t="s">
@@ -33232,7 +33244,7 @@
       <c r="B3" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="62" t="s">
         <v>171</v>
       </c>
       <c r="D3" s="46" t="s">
@@ -33241,7 +33253,7 @@
       <c r="E3" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="61" t="s">
         <v>206</v>
       </c>
       <c r="G3" s="13" t="s">
@@ -33255,7 +33267,7 @@
       <c r="B4" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="61" t="s">
         <v>171</v>
       </c>
       <c r="D4" s="46" t="s">
@@ -33264,7 +33276,7 @@
       <c r="E4" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="61" t="s">
         <v>206</v>
       </c>
       <c r="G4" s="13" t="s">
@@ -33295,7 +33307,7 @@
       <c r="A6" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="61" t="s">
         <v>201</v>
       </c>
       <c r="C6" s="46" t="s">
@@ -33307,7 +33319,7 @@
       <c r="E6" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="61" t="s">
         <v>210</v>
       </c>
       <c r="G6" s="13" t="s">
@@ -33318,7 +33330,7 @@
       <c r="A7" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="61" t="s">
         <v>201</v>
       </c>
       <c r="C7" s="47" t="s">
@@ -33330,7 +33342,7 @@
       <c r="E7" s="18">
         <v>9985</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="61" t="s">
         <v>212</v>
       </c>
       <c r="G7" s="13" t="s">
@@ -33341,7 +33353,7 @@
       <c r="A8" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="61" t="s">
         <v>201</v>
       </c>
       <c r="C8" s="46" t="s">
@@ -33353,7 +33365,7 @@
       <c r="E8" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="61" t="s">
         <v>210</v>
       </c>
       <c r="G8" s="13" t="s">
@@ -33364,7 +33376,7 @@
       <c r="A9" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="61" t="s">
         <v>201</v>
       </c>
       <c r="C9" s="46" t="s">
@@ -33376,7 +33388,7 @@
       <c r="E9" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="61" t="s">
         <v>210</v>
       </c>
       <c r="G9" s="13" t="s">
